--- a/Export.xlsx
+++ b/Export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Criado</t>
   </si>
@@ -58,6 +58,72 @@
     <t>Obs</t>
   </si>
   <si>
+    <t>Mon Jun 28 2021 06:54:51 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>EQUIPE 3</t>
+  </si>
+  <si>
+    <t>OPERACIONAL 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>111.111.111-11</t>
+  </si>
+  <si>
+    <t>SAQUE COMPLEMENTAR</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>22,22</t>
+  </si>
+  <si>
+    <t>AGUARDANDO AVERB INSS</t>
+  </si>
+  <si>
+    <t>Mon Jun 28 2021 06:54:14 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>FGTS</t>
+  </si>
+  <si>
+    <t>Mon Jun 28 2021 06:53:44 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>CARTÃO</t>
+  </si>
+  <si>
+    <t>Mon Jun 28 2021 06:46:23 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>BRUNO FERNANDO GOMES DA SILVA</t>
+  </si>
+  <si>
+    <t>CREDITO CONTA</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Mon Jun 28 2021 06:45:49 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>EQUIPE 6</t>
+  </si>
+  <si>
+    <t>OPERACIONAL 6</t>
+  </si>
+  <si>
+    <t>PENDENTE</t>
+  </si>
+  <si>
     <t>Sun Jun 27 2021 00:30:17 GMT-0300 (Horário Padrão de Brasília)</t>
   </si>
   <si>
@@ -65,12 +131,6 @@
   </si>
   <si>
     <t>OPERACIONAL 7</t>
-  </si>
-  <si>
-    <t>BRUNO FERNANDO GOMES DA SILVA</t>
-  </si>
-  <si>
-    <t>111.111.111-11</t>
   </si>
   <si>
     <t>PORTABILIDADE</t>
@@ -98,9 +158,6 @@
     <t>Sun Jun 27 2021 00:07:11 GMT-0300 (Horário Padrão de Brasília)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>REFIN</t>
   </si>
   <si>
@@ -171,36 +228,6 @@
   </si>
   <si>
     <t>Fri Jun 25 2021 13:17:50 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Mon Jun 28 2021 06:46:23 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>CREDITO CONTA</t>
-  </si>
-  <si>
-    <t>22,22</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>Observação</t>
-  </si>
-  <si>
-    <t>Mon Jun 28 2021 06:45:49 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>EQUIPE 6</t>
-  </si>
-  <si>
-    <t>OPERACIONAL 6</t>
-  </si>
-  <si>
-    <t>SAQUE COMPLEMENTAR</t>
-  </si>
-  <si>
-    <t>PENDENTE</t>
   </si>
 </sst>
 </file>
@@ -240,7 +267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -295,13 +322,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="0" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>18</v>
@@ -310,45 +337,45 @@
         <v>19</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>18</v>
@@ -357,39 +384,39 @@
         <v>19</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -404,48 +431,48 @@
         <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>19</v>
@@ -454,45 +481,45 @@
         <v>5</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>19</v>
@@ -507,39 +534,39 @@
         <v>7</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>19</v>
@@ -548,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>7</v>
@@ -560,33 +587,33 @@
         <v>9</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>19</v>
@@ -595,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>7</v>
@@ -607,113 +634,348 @@
         <v>9</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>28</v>
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Export.xlsx
+++ b/Export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Criado</t>
   </si>
@@ -58,89 +58,121 @@
     <t>Obs</t>
   </si>
   <si>
+    <t>Mon Jun 28 2021 13:05:19 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>EQUIPE 1</t>
+  </si>
+  <si>
+    <t>OPERACIONAL 1</t>
+  </si>
+  <si>
+    <t>MARILANDA SOARES NASCENTE</t>
+  </si>
+  <si>
+    <t>491.315.590-34</t>
+  </si>
+  <si>
+    <t>1050009255</t>
+  </si>
+  <si>
+    <t>PORTABILIDADE</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>326,46</t>
+  </si>
+  <si>
+    <t>9.689,51</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>02020202</t>
+  </si>
+  <si>
+    <t>2,28</t>
+  </si>
+  <si>
+    <t>VENDA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Jun 28 2021 12:51:11 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>BRUNO FERNANDO GOMES DA SILVA</t>
+  </si>
+  <si>
+    <t>111.111.111-11</t>
+  </si>
+  <si>
+    <t>22,22</t>
+  </si>
+  <si>
+    <t>111111111.111,11</t>
+  </si>
+  <si>
+    <t>Parcelas restantes</t>
+  </si>
+  <si>
+    <t>Nº Contrato</t>
+  </si>
+  <si>
+    <t>CANCELADO</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Mon Jun 28 2021 12:49:34 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
     <t>Mon Jun 28 2021 12:02:03 GMT-0300 (Horário Padrão de Brasília)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>BRUNO FERNANDO GOMES DA SILVA</t>
-  </si>
-  <si>
-    <t>111.111.111-11</t>
-  </si>
-  <si>
     <t>CARTÃO + SAQUE</t>
   </si>
   <si>
-    <t>22,22</t>
-  </si>
-  <si>
-    <t>CANCELADO</t>
-  </si>
-  <si>
-    <t>Observação</t>
-  </si>
-  <si>
     <t>Mon Jun 28 2021 12:01:52 GMT-0300 (Horário Padrão de Brasília)</t>
   </si>
   <si>
     <t>AVERBADO</t>
   </si>
   <si>
-    <t>Sun Jun 27 2021 00:30:17 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>EQUIPE 10</t>
+    <t>Mon Jun 28 2021 11:53:02 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>REDIGITAR</t>
+  </si>
+  <si>
+    <t>Mon Jun 28 2021 11:42:25 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>104.216.703-63</t>
+  </si>
+  <si>
+    <t>PORT + REFIN</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>AGUARDANDO SALDO FIS</t>
+  </si>
+  <si>
+    <t>Mon Jun 28 2021 11:26:18 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>EQUIPE 7</t>
   </si>
   <si>
     <t>OPERACIONAL 7</t>
-  </si>
-  <si>
-    <t>PORTABILIDADE</t>
-  </si>
-  <si>
-    <t>Parcelas restantes</t>
-  </si>
-  <si>
-    <t>Nº Contrato</t>
-  </si>
-  <si>
-    <t>Observação
-</t>
-  </si>
-  <si>
-    <t>Sun Jun 27 2021 00:30:06 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Sun Jun 27 2021 00:07:31 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Mon Jun 28 2021 11:53:02 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>REDIGITAR</t>
-  </si>
-  <si>
-    <t>Mon Jun 28 2021 11:42:25 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>104.216.703-63</t>
-  </si>
-  <si>
-    <t>PORT + REFIN</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>AGUARDANDO SALDO FIS</t>
-  </si>
-  <si>
-    <t>Mon Jun 28 2021 11:26:18 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>EQUIPE 7</t>
   </si>
   <si>
     <t>MARIA FERNANDA OLIVEIRA</t>
@@ -246,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -307,513 +339,654 @@
         <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="H6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="O6" s="0" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="H8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="L8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="O8" s="0" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="I12" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>64</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Export.xlsx
+++ b/Export.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Criado</t>
   </si>
   <si>
+    <t>usuario</t>
+  </si>
+  <si>
     <t>Supervisor</t>
   </si>
   <si>
@@ -58,19 +61,253 @@
     <t>Obs</t>
   </si>
   <si>
-    <t>Tue Jun 29 2021 05:25:51 GMT-0300 (Horário Padrão de Brasília)</t>
+    <t>Fri Jul 02 2021 15:37:51 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Supervisor 1</t>
+  </si>
+  <si>
+    <t>EQUIPE 1</t>
+  </si>
+  <si>
+    <t>OPERACIONAL 1</t>
+  </si>
+  <si>
+    <t>ERNESTO KLASSMANN</t>
+  </si>
+  <si>
+    <t>384.491.969-49</t>
+  </si>
+  <si>
+    <t>1570178493</t>
+  </si>
+  <si>
+    <t>PORT + REFIN</t>
+  </si>
+  <si>
+    <t>739 - Cetelem</t>
+  </si>
+  <si>
+    <t>364,15</t>
+  </si>
+  <si>
+    <t>12.760,24</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>840736274/19</t>
+  </si>
+  <si>
+    <t>1,67</t>
+  </si>
+  <si>
+    <t>VENDA</t>
+  </si>
+  <si>
+    <t>Portabilidade da sua parcela de R$ 364,15 do Daycoval para o Banco Banrisul onde a parcela do senhor permanece a mesma mas a taxa de juros cai para 1,36%, o prazo será de 84x e libera um troco para o senhor de R$ 4.837,31.</t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 14:57:16 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 14:35:23 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Operador 1</t>
+  </si>
+  <si>
+    <t>MARIA DE LOURDES LIMA SILVA</t>
+  </si>
+  <si>
+    <t>041.029.358-00</t>
+  </si>
+  <si>
+    <t>1398352567</t>
+  </si>
+  <si>
+    <t>PORTABILIDADE</t>
+  </si>
+  <si>
+    <t>DAYCOVAL</t>
+  </si>
+  <si>
+    <t>142,00</t>
+  </si>
+  <si>
+    <t>5.047,81</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>55-6461958/19</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>Portabilidade sem refin </t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 14:12:36 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Thiago Gabriel</t>
+  </si>
+  <si>
+    <t>WAGNER BRUNELLI</t>
+  </si>
+  <si>
+    <t>813.967.678-00</t>
+  </si>
+  <si>
+    <t>1265211300</t>
+  </si>
+  <si>
+    <t>707 - DAYCOVAL</t>
+  </si>
+  <si>
+    <t>695,40</t>
+  </si>
+  <si>
+    <t>26.539,65</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>	55-7028931/20</t>
+  </si>
+  <si>
+    <t>1,54</t>
+  </si>
+  <si>
+    <t>AVERBADO</t>
+  </si>
+  <si>
+    <t>Portabilidade sem refin</t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 14:11:48 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>RETORNAR CLIENTE</t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 14:03:47 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Operador 3</t>
+  </si>
+  <si>
+    <t>GILBERTO PEREIRA</t>
+  </si>
+  <si>
+    <t>261.457.907-68</t>
+  </si>
+  <si>
+    <t>1082982447</t>
+  </si>
+  <si>
+    <t>REFIN UNIF</t>
+  </si>
+  <si>
+    <t>623 - PAN</t>
+  </si>
+  <si>
+    <t>126,30</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>111.111.111-11</t>
-  </si>
-  <si>
-    <t>REFIN</t>
-  </si>
-  <si>
-    <t>RETORNAR CLIENTE</t>
+    <t>2,27</t>
+  </si>
+  <si>
+    <t>AGUARDANDO ACEITE</t>
+  </si>
+  <si>
+    <t>103,80 + 22,50</t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 10:34:18 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 08:48:41 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>FRANCISCA CARRILHO MARTINS</t>
+  </si>
+  <si>
+    <t>039.864.948-04</t>
+  </si>
+  <si>
+    <t>1651714220</t>
+  </si>
+  <si>
+    <t>SAFRA</t>
+  </si>
+  <si>
+    <t>361,92</t>
+  </si>
+  <si>
+    <t>12.319,92</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>000011095610</t>
+  </si>
+  <si>
+    <t>1,70</t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 07:53:44 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 07:46:01 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Operador 2</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>12.958,74</t>
+  </si>
+  <si>
+    <t>passei para o cliente um valor aprox de 4.000,00</t>
+  </si>
+  <si>
+    <t>Fri Jul 02 2021 07:24:33 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>JOSE ROBERTO DA SILVA</t>
+  </si>
+  <si>
+    <t>771.914.558-53</t>
+  </si>
+  <si>
+    <t>1072358813</t>
+  </si>
+  <si>
+    <t>179,22</t>
+  </si>
+  <si>
+    <t>4.874,12</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>55-5317009/18</t>
+  </si>
+  <si>
+    <t>1,65</t>
   </si>
 </sst>
 </file>
@@ -110,13 +347,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -162,52 +399,558 @@
       <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>16</v>
+      <c r="E3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Export.xlsx
+++ b/Export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Criado</t>
   </si>
@@ -61,10 +61,177 @@
     <t>Obs</t>
   </si>
   <si>
-    <t>Fri Jul 02 2021 15:37:51 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Supervisor 1</t>
+    <t>Wed Jul 07 2021 14:28:25 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Desenvolvedor</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>666.666.666-66</t>
+  </si>
+  <si>
+    <t>REFIN</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 14:27:56 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>111.111.111-11</t>
+  </si>
+  <si>
+    <t>AVERBADO</t>
+  </si>
+  <si>
+    <t>ummmm</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 13:35:14 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 13:35:01 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>teste1</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 14:28:09 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>CANCELADO</t>
+  </si>
+  <si>
+    <t>com img</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 12:49:30 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Operacional 2</t>
+  </si>
+  <si>
+    <t>EQUIPE 2</t>
+  </si>
+  <si>
+    <t>OPERACIONAL 2</t>
+  </si>
+  <si>
+    <t>ADILSON SILIPRANDI DA SILVA</t>
+  </si>
+  <si>
+    <t>256.848.507-82</t>
+  </si>
+  <si>
+    <t> 1331602561 </t>
+  </si>
+  <si>
+    <t>PORT + REFIN</t>
+  </si>
+  <si>
+    <t>041 - BANRISUL</t>
+  </si>
+  <si>
+    <t>107,63</t>
+  </si>
+  <si>
+    <t>4.162,75</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>8185205</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>( Troco de aproximadamente R$ 1.084,68 )
+VENDA DA ISABELA ---- VENDA EM ANDAMENTO
+</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 12:39:32 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Operador 6</t>
+  </si>
+  <si>
+    <t>LUZA THEREZINHA DE BAUMONT SOTRES</t>
+  </si>
+  <si>
+    <t>209.663.690-68</t>
+  </si>
+  <si>
+    <t>1435410812 </t>
+  </si>
+  <si>
+    <t>041 - Banrisul </t>
+  </si>
+  <si>
+    <t>782,28</t>
+  </si>
+  <si>
+    <t>28.407,46</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>04100000000004177845</t>
+  </si>
+  <si>
+    <t>1,40%</t>
+  </si>
+  <si>
+    <t>VENDA</t>
+  </si>
+  <si>
+    <t>Cliente finalizado, troco oferecido de R$9.200,00</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 12:35:59 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Operador 7</t>
+  </si>
+  <si>
+    <t>	00000000000008185205</t>
+  </si>
+  <si>
+    <t>	1,44%</t>
+  </si>
+  <si>
+    <t>( Troco de aproximadamente R$ 1.084,68) (Também tem a parcela no valor de R$ 760,61 que libera aproximadamente R$ 6.694,93 )</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 12:04:00 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>( Troco de aproximadamente R$ 1.084,68 )</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 11:52:04 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 11:06:45 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 10:13:41 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 10:11:16 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Operacional 1</t>
   </si>
   <si>
     <t>EQUIPE 1</t>
@@ -73,99 +240,18 @@
     <t>OPERACIONAL 1</t>
   </si>
   <si>
-    <t>ERNESTO KLASSMANN</t>
-  </si>
-  <si>
-    <t>384.491.969-49</t>
-  </si>
-  <si>
-    <t>1570178493</t>
-  </si>
-  <si>
-    <t>PORT + REFIN</t>
-  </si>
-  <si>
-    <t>739 - Cetelem</t>
-  </si>
-  <si>
-    <t>364,15</t>
-  </si>
-  <si>
-    <t>12.760,24</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>840736274/19</t>
-  </si>
-  <si>
-    <t>1,67</t>
-  </si>
-  <si>
-    <t>VENDA</t>
-  </si>
-  <si>
-    <t>Portabilidade da sua parcela de R$ 364,15 do Daycoval para o Banco Banrisul onde a parcela do senhor permanece a mesma mas a taxa de juros cai para 1,36%, o prazo será de 84x e libera um troco para o senhor de R$ 4.837,31.</t>
-  </si>
-  <si>
-    <t>Fri Jul 02 2021 14:57:16 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Fri Jul 02 2021 14:35:23 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Operador 1</t>
-  </si>
-  <si>
-    <t>MARIA DE LOURDES LIMA SILVA</t>
-  </si>
-  <si>
-    <t>041.029.358-00</t>
-  </si>
-  <si>
-    <t>1398352567</t>
+    <t>WAGNER BRUNELLI</t>
+  </si>
+  <si>
+    <t>813.967.678-00</t>
+  </si>
+  <si>
+    <t>1265211300</t>
   </si>
   <si>
     <t>PORTABILIDADE</t>
   </si>
   <si>
-    <t>DAYCOVAL</t>
-  </si>
-  <si>
-    <t>142,00</t>
-  </si>
-  <si>
-    <t>5.047,81</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>55-6461958/19</t>
-  </si>
-  <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>Portabilidade sem refin </t>
-  </si>
-  <si>
-    <t>Fri Jul 02 2021 14:12:36 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Thiago Gabriel</t>
-  </si>
-  <si>
-    <t>WAGNER BRUNELLI</t>
-  </si>
-  <si>
-    <t>813.967.678-00</t>
-  </si>
-  <si>
-    <t>1265211300</t>
-  </si>
-  <si>
     <t>707 - DAYCOVAL</t>
   </si>
   <si>
@@ -184,130 +270,144 @@
     <t>1,54</t>
   </si>
   <si>
-    <t>AVERBADO</t>
-  </si>
-  <si>
-    <t>Portabilidade sem refin</t>
-  </si>
-  <si>
-    <t>Fri Jul 02 2021 14:11:48 GMT-0300 (Horário Padrão de Brasília)</t>
+    <t>AGUARDANDO ACEITE</t>
+  </si>
+  <si>
+    <t>Mas se optar por Refinanciar as condições de redução da parcela fica a mesma, reduz de R$ 695,40 para R$ 688,51, a taxa também será de 1,36%, o prazo vai para 84x e libera um troco de R$ 7.193,38.
+Tabela XV -  que liberou R$ 7.356,38</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 10:10:53 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>1331602561 </t>
+  </si>
+  <si>
+    <t>760,61</t>
+  </si>
+  <si>
+    <t>30.388,10</t>
+  </si>
+  <si>
+    <t>	00000000000008320453</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>( Troco financeiro de aproximadamente de R$ 6.694,93 )
+VENDA DA ISABELA EM ANDAMENTO</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 10:07:26 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>( Troco financeiro de aproximadamente de R$ 6.694,93 )</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 09:42:44 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>104.216.703-63</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 07:16:55 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>ROMES PEREIRA GONCALVES</t>
+  </si>
+  <si>
+    <t>260.690.246-72</t>
+  </si>
+  <si>
+    <t> 1095311147 </t>
+  </si>
+  <si>
+    <t>955 -Olé</t>
+  </si>
+  <si>
+    <t>618,50</t>
+  </si>
+  <si>
+    <t>24.276,29</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>	181396592</t>
+  </si>
+  <si>
+    <t>	1,00%</t>
+  </si>
+  <si>
+    <t>AGUARDANDO DOC</t>
+  </si>
+  <si>
+    <t>Troco de aproximadamente R$ 5.229,63	da parcela de R$ 618,50
+ Libera no Banco Facta 5.509,89 em 84X
+</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 07:16:06 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>ELAINE TEREZINHA PEDRO GONCALVES</t>
+  </si>
+  <si>
+    <t>031.709.886-11</t>
+  </si>
+  <si>
+    <t> 6173715752</t>
+  </si>
+  <si>
+    <t>623 - PAN</t>
+  </si>
+  <si>
+    <t>250,00</t>
+  </si>
+  <si>
+    <t>10.183,71</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>336574034-3</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>Cliente faz ou ja fez 12 agora,Renata pediu para puxar o extrato para sabermos quando vai ser 
+PANAMERICANO SO FAZ COM 13 ------ ESTA COM 12 </t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 06:56:50 GMT-0300 (Horário Padrão de Brasília)</t>
   </si>
   <si>
     <t>RETORNAR CLIENTE</t>
   </si>
   <si>
-    <t>Fri Jul 02 2021 14:03:47 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Operador 3</t>
-  </si>
-  <si>
-    <t>GILBERTO PEREIRA</t>
-  </si>
-  <si>
-    <t>261.457.907-68</t>
-  </si>
-  <si>
-    <t>1082982447</t>
-  </si>
-  <si>
-    <t>REFIN UNIF</t>
-  </si>
-  <si>
-    <t>623 - PAN</t>
-  </si>
-  <si>
-    <t>126,30</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2,27</t>
-  </si>
-  <si>
-    <t>AGUARDANDO ACEITE</t>
-  </si>
-  <si>
-    <t>103,80 + 22,50</t>
-  </si>
-  <si>
-    <t>Fri Jul 02 2021 10:34:18 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Fri Jul 02 2021 08:48:41 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>FRANCISCA CARRILHO MARTINS</t>
-  </si>
-  <si>
-    <t>039.864.948-04</t>
-  </si>
-  <si>
-    <t>1651714220</t>
-  </si>
-  <si>
-    <t>SAFRA</t>
-  </si>
-  <si>
-    <t>361,92</t>
-  </si>
-  <si>
-    <t>12.319,92</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>000011095610</t>
-  </si>
-  <si>
-    <t>1,70</t>
-  </si>
-  <si>
-    <t>Fri Jul 02 2021 07:53:44 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Fri Jul 02 2021 07:46:01 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>Operador 2</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>12.958,74</t>
-  </si>
-  <si>
-    <t>passei para o cliente um valor aprox de 4.000,00</t>
-  </si>
-  <si>
-    <t>Fri Jul 02 2021 07:24:33 GMT-0300 (Horário Padrão de Brasília)</t>
-  </si>
-  <si>
-    <t>JOSE ROBERTO DA SILVA</t>
-  </si>
-  <si>
-    <t>771.914.558-53</t>
-  </si>
-  <si>
-    <t>1072358813</t>
-  </si>
-  <si>
-    <t>179,22</t>
-  </si>
-  <si>
-    <t>4.874,12</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>55-5317009/18</t>
-  </si>
-  <si>
-    <t>1,65</t>
+    <t>Wed Jul 07 2021 14:47:31 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 14:42:58 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>SAQUE COMPLEMENTAR</t>
+  </si>
+  <si>
+    <t>PENDENTE</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 14:42:14 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>AGUARDANDO SALDO FIS</t>
+  </si>
+  <si>
+    <t>Wed Jul 07 2021 14:43:18 GMT-0300 (Horário Padrão de Brasília)</t>
   </si>
 </sst>
 </file>
@@ -347,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -405,57 +505,57 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -464,493 +564,993 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="0" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="0" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="0" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="L17" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="N18" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="O18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="0" t="s">
+      <c r="I20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="0" t="s">
-        <v>58</v>
+      <c r="P21" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
